--- a/Main BOM.xlsx
+++ b/Main BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbelenko\Dropbox @RU Dropbox\Precision Instrumentation Technologies\Rockefeller Labs\Heintz Lab (PIT)\Tatz\HEI2400_Photobleacherv2\Enclosure Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griffin\Photobleacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D75C4B-43FA-4243-B26B-974B433CFA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E09BB-F8C2-4BF9-B1B0-7D35EEA47059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0FCD3EA-CB46-431D-BE79-0DD6186FD744}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C0FCD3EA-CB46-431D-BE79-0DD6186FD744}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Enclosure - Digikey" sheetId="1" r:id="rId1"/>
+    <sheet name="Enclosure - McMaster-Carr" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>Description</t>
   </si>
@@ -209,9 +210,6 @@
     <t>blue QC Female</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>blue QC Female (flag)</t>
   </si>
   <si>
@@ -224,12 +222,6 @@
     <t>09362-F/45</t>
   </si>
   <si>
-    <t>outlet fan cover</t>
-  </si>
-  <si>
-    <t>inlet fan cover</t>
-  </si>
-  <si>
     <t>CR379-ND</t>
   </si>
   <si>
@@ -242,56 +234,200 @@
     <t>PSU Fan Covers</t>
   </si>
   <si>
-    <t>BRASS SPACER STUD METRIC THREAD 15MM</t>
-  </si>
-  <si>
-    <t>732-12863-ND</t>
-  </si>
-  <si>
-    <t>FAN FILTER GUARD ASSY 92MM ABS</t>
-  </si>
-  <si>
-    <t>LFG92</t>
-  </si>
-  <si>
-    <t>1053-1610-ND</t>
-  </si>
-  <si>
     <t>RELAY GEN PURPOSE DPDT 10A 120V</t>
   </si>
   <si>
     <t>LY2F-AC110/120</t>
   </si>
   <si>
-    <t>BSO-M3-18ZI</t>
-  </si>
-  <si>
-    <t>M3x18mm Blind Threaded Standoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3x14mm Blind Threaded Standoff </t>
-  </si>
-  <si>
-    <t>BSO-M3-14ZI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSO-M3-8ZI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3x8mm Blind Threaded Standoff </t>
-  </si>
-  <si>
-    <t>CLA-M3-1</t>
-  </si>
-  <si>
     <t>crimp contact for DC output</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>CONN SPADE TERM 18-22AWG #10 RED</t>
+  </si>
+  <si>
+    <t>WM13785-ND</t>
+  </si>
+  <si>
+    <t>inlet/Outlet fan cover</t>
+  </si>
+  <si>
+    <t>CONN SPADE TERM 14-16AWG #10 BLU</t>
+  </si>
+  <si>
+    <t>WM13770-ND</t>
+  </si>
+  <si>
+    <t>Spade Power Connector (18-22AWG)</t>
+  </si>
+  <si>
+    <t>Spade Power Connector (14-16AWG)</t>
+  </si>
+  <si>
+    <t>59150-020</t>
+  </si>
+  <si>
+    <t>Reed Switch for Door</t>
+  </si>
+  <si>
+    <t>SENSOR REED SW SPST-NO W LEADS</t>
+  </si>
+  <si>
+    <t>59150-020-ND</t>
+  </si>
+  <si>
+    <t>Magnet for Door</t>
+  </si>
+  <si>
+    <t>469-1010-ND</t>
+  </si>
+  <si>
+    <t>MAGNET 0.375"D X 0.100"THICK CYL</t>
+  </si>
+  <si>
+    <t>HOOK-UP STRND 18AWG BLACK 100'</t>
+  </si>
+  <si>
+    <t>891819 BK005</t>
+  </si>
+  <si>
+    <t>891819BK005-ND</t>
+  </si>
+  <si>
+    <t>Bulk 18AWG Wire - Black</t>
+  </si>
+  <si>
+    <t>891819 RD005</t>
+  </si>
+  <si>
+    <t>891819RD005-ND</t>
+  </si>
+  <si>
+    <t>Bulk 18AWG Wire - Red</t>
+  </si>
+  <si>
+    <t>HOOK-UP STRND 18AWG RED 100'</t>
+  </si>
+  <si>
+    <t>WM13634-ND</t>
+  </si>
+  <si>
+    <t>CONN RING CIRC 14-16AWG #8 CRIMP</t>
+  </si>
+  <si>
+    <t>Ring Connector For Terminal Block Bus</t>
+  </si>
+  <si>
+    <t>Blue Sea Systems DualBus 100A Comon BusBars</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Amazon ASIN: B000277JB4 (Not on Digikey)</t>
+  </si>
+  <si>
+    <t>McMaster P/N</t>
+  </si>
+  <si>
+    <t>7587A31</t>
+  </si>
+  <si>
+    <t>Sealant for Spillproofing</t>
+  </si>
+  <si>
+    <t>Silicone Sealant Dow Corning 732, 10.1 FL. oz. Cartridge, White</t>
+  </si>
+  <si>
+    <t>94733A411</t>
+  </si>
+  <si>
+    <t>Chemical-Resistant Santoprene Sealing Washer (QTY 50)</t>
+  </si>
+  <si>
+    <t>Washers for Stage Spillproofing</t>
+  </si>
+  <si>
+    <t>Borosilicate Glass Sheet 12" x 8" x 1/4"</t>
+  </si>
+  <si>
+    <t>8476K84</t>
+  </si>
+  <si>
+    <t>Glass Sheet for Stage</t>
+  </si>
+  <si>
+    <t>91828A211</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel M3 Hex Nuts (QTY 100)</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Cup-Point Set Screw M3 x 0.5 mm Thread, 10 mm Long (QTY 50)</t>
+  </si>
+  <si>
+    <t>92015A106</t>
+  </si>
+  <si>
+    <t>General purpose mounting screws for LED boards</t>
+  </si>
+  <si>
+    <t>94868A006</t>
+  </si>
+  <si>
+    <t>Female Threaded Hex Standoff 18-8 Stainless Steel, 4.5mm Hex, 10mm Long, M3 x 0.5mm Thread</t>
+  </si>
+  <si>
+    <t>For Mounting Glass Stage</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Socket Head Screw M3 x 0.5 mm Thread, 10 mm Long (QTY 100)</t>
+  </si>
+  <si>
+    <t>91292A113</t>
+  </si>
+  <si>
+    <t>98164A444</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Button Head Hex Drive Screw Super-Corrosion-Resistant, 6-32 Thread Size, 1-1/4" Long (QTY 50)</t>
+  </si>
+  <si>
+    <t>Fan Mounting Hardware</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Button Head Hex Drive Screw Super-Corrosion-Resistant, 6-32 Thread Size, 1-1/2" Long (QTY 50)</t>
+  </si>
+  <si>
+    <t>98164A445</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Narrow Hex Nut 6-32 Thread Size (QTY 100)</t>
+  </si>
+  <si>
+    <t>90730A007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Temperature Foam Mounting Tape 3M VHB 4611, 1/2" Wide, 15 Feet Long </t>
+  </si>
+  <si>
+    <t>7201A21</t>
+  </si>
+  <si>
+    <t>Foam VHB tape for Mounting Parts inside enclosure</t>
+  </si>
+  <si>
+    <t>SEE PCB Folder For PCB Part BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,16 +443,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,18 +459,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,22 +472,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,32 +860,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B566-020E-4FC5-AD01-808B5DEC7CFB}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -731,387 +893,648 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>4301.1405000000004</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>7010.3450000000003</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>82</v>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>190030011</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>190030056</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5">
+        <v>190070010</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5">
+        <v>190070035</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>190070010</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>190070035</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>62</v>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B20" s="5">
+        <v>191420007</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="5">
+        <v>191310014</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="2">
-        <v>970150354</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2">
-        <v>24</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8008</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2">
-        <v>24</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="5">
+        <v>190540110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2702</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" display="https://www.protocase.com/products/materials-components-finishes/components/specific-standoff.php?standoff=BSO-M3-14ZI" xr:uid="{FFBCA203-9C0D-420C-B601-97D378181150}"/>
-    <hyperlink ref="B25" r:id="rId2" display="https://www.protocase.com/products/materials-components-finishes/components/specific-standoff.php?standoff=BSO-M3-8ZI" xr:uid="{B0B74323-4045-4B96-9BFF-4855228C5862}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DCA84-2594-4DB5-9E2D-64E005E51335}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>